--- a/templates/QARSF/Division To division Transfer.xlsx
+++ b/templates/QARSF/Division To division Transfer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\rsqasampleproj\rsqasampleproj\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\rsqasampleproj\rsqasampleproj\templates\QARSF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C015E34B-2E6F-4750-996D-31C2F8F72137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A539572-DC10-4ADD-A77F-FDA15DB681CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{BB441E9F-4FBE-410A-8F63-C9ADD7579EED}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BB441E9F-4FBE-410A-8F63-C9ADD7579EED}"/>
   </bookViews>
   <sheets>
     <sheet name="8177-LOT-New" sheetId="1" r:id="rId1"/>
@@ -605,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAC26E65-409C-493E-ABD4-A039BE3F1B14}">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B10" sqref="A10:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -967,18 +967,6 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="I11" s="4"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="I14" s="4"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="I16" s="4"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -991,7 +979,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="C9" sqref="A9:XFD9"/>
+      <selection activeCell="D8" sqref="A1:N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1442,8 +1430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{327BB445-E756-4647-886B-5441E232C968}">
   <dimension ref="A1:AC2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
